--- a/biology/Botanique/Frank_White_(botaniste)/Frank_White_(botaniste).xlsx
+++ b/biology/Botanique/Frank_White_(botaniste)/Frank_White_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank White (né le 5 mars 1927 et mort à Oxford le 12 septembre 1994) est un botaniste-forestier britannique, conservateur de l'herbier forestier de l'Université d'Oxford de 1964 à 1992[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank White (né le 5 mars 1927 et mort à Oxford le 12 septembre 1994) est un botaniste-forestier britannique, conservateur de l'herbier forestier de l'Université d'Oxford de 1964 à 1992.
 F. White était un spécialiste des forêts tropicales africaines, dont il avait entrepris l'étude sous de multiples angles : systématique, phytogéographie, chorologie, végétation.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>F. White, Forest Flora of Northern Rhodesia, London, 1962, 455 p.
 J.D. Chapman &amp; F. White, The Evergreen Forests of Malawi, Commonwealth Forestry Institute, Oxford, 1970, 190 p.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Léonard &amp; Paul Bamps, Le Dr Frank WHITE (1927-1994) et le Jardin botanique national de Belgique, in : Bulletin du Jardin botanique national de Belgique, Vol. 64, No. 1/2 (Jun. 30, 1995), pp. 3–11.</t>
         </is>
